--- a/public/template/don vi tinh.xlsx
+++ b/public/template/don vi tinh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\nhập liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tên đơn vị</t>
   </si>
@@ -50,23 +50,53 @@
     <t>Tá</t>
   </si>
   <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>yến</t>
-  </si>
-  <si>
-    <t>tạ</t>
-  </si>
-  <si>
     <t>Tấn</t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>Cân</t>
+  </si>
+  <si>
+    <t>Tạ</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>lít</t>
+  </si>
+  <si>
+    <t>Can</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +107,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +525,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,15 +535,46 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>